--- a/scripts/BaseshortBR.xlsx
+++ b/scripts/BaseshortBR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>series</t>
-  </si>
-  <si>
-    <t>transformation</t>
   </si>
   <si>
     <t>serie22099</t>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>Desembolsos do sistema BNDES - Total - R$ (milhões)</t>
+  </si>
+  <si>
+    <t>transf</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,79 +611,79 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
       <c r="U1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
       <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -15756,8 +15756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15774,10 +15774,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15785,10 +15785,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -15802,10 +15802,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -15819,10 +15819,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -15836,10 +15836,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -15853,10 +15853,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -15870,10 +15870,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -15887,10 +15887,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -15904,10 +15904,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -15921,10 +15921,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -15938,10 +15938,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -15955,10 +15955,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -15972,10 +15972,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -15989,10 +15989,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -16006,10 +16006,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -16023,10 +16023,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -16040,10 +16040,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -16057,10 +16057,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -16074,10 +16074,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -16091,10 +16091,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16108,10 +16108,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -16125,10 +16125,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -16142,10 +16142,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16159,10 +16159,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -16176,10 +16176,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -16193,10 +16193,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>3</v>
